--- a/P10/Scrum_Sprint_4.xlsx
+++ b/P10/Scrum_Sprint_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcnar\Desktop\cse1325\P10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE10056-3C15-4537-AA5A-0CECA762C4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA09E7C8-F227-4F89-813D-3DD4C20D39D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27120" yWindow="1545" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="224">
   <si>
     <t>Product Name:</t>
   </si>
@@ -708,9 +708,6 @@
   </si>
   <si>
     <t>ELSA</t>
-  </si>
-  <si>
-    <t>In Work</t>
   </si>
   <si>
     <t>Insert new order using a sequence of dialogs</t>
@@ -1258,10 +1255,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1552,22 +1549,22 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,8 +3919,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4205,11 +4202,11 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 4")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
@@ -4225,11 +4222,11 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$107,"Finished in Sprint 4")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="5"/>
@@ -4911,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H41" s="18" t="s">
         <v>31</v>
@@ -4942,7 +4939,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H42" s="18" t="s">
         <v>31</v>
@@ -4973,7 +4970,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H43" s="18" t="s">
         <v>31</v>
@@ -5006,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>31</v>
@@ -5943,8 +5940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6081,11 +6078,11 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -6099,7 +6096,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -6117,7 +6114,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -6135,7 +6132,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -6153,7 +6150,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -6171,7 +6168,7 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -6224,7 +6221,7 @@
         <v>160</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="37" t="s">
         <v>177</v>
@@ -6311,7 +6308,7 @@
         <v>102</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="F23" s="38"/>
     </row>
